--- a/Laboratorio#1/practica 1.xlsx
+++ b/Laboratorio#1/practica 1.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juana\Desktop\Juan Andrés Universidad de Antioquia\semestre 6\Arquitectura de computadores y lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juana\Desktop\Juan Andrés Universidad de Antioquia\semestre 6\Arquitectura de computadores y lab\arquitectura-computadores\Laboratorio#1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82119164-19B1-4774-9860-B0B851316DC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE121768-DC17-4C11-93F1-64BA352DA8B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{20BF1EDB-0F3C-4008-BCD4-F357543DB998}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{20BF1EDB-0F3C-4008-BCD4-F357543DB998}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="4" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="5" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="31">
   <si>
     <t>W</t>
   </si>
@@ -330,7 +331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,6 +572,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -610,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1060,6 +1073,102 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1070,16 +1179,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9933"/>
+      <color rgb="FFFE7A7A"/>
+      <color rgb="FFFF630D"/>
       <color rgb="FF66FF33"/>
       <color rgb="FFFF0066"/>
-      <color rgb="FFFF630D"/>
+      <color rgb="FF66FF99"/>
+      <color rgb="FFFF66CC"/>
       <color rgb="FFACEE8E"/>
-      <color rgb="FF66FF99"/>
-      <color rgb="FFFE7A7A"/>
-      <color rgb="FFFF9933"/>
-      <color rgb="FFFF66CC"/>
+      <color rgb="FF0033CC"/>
       <color rgb="FFDC76D5"/>
-      <color rgb="FF0033CC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1392,7 +1501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C33F3A-E153-4FE1-ACF6-8725A7E4A467}">
   <dimension ref="B1:BK65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -6620,7 +6729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1754C999-8EE8-435D-9725-DE3E6BE8AB5A}">
   <dimension ref="B1:AX65"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="AA1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H65"/>
     </sheetView>
   </sheetViews>
@@ -10905,8 +11014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501C98E7-9AD1-4D68-B6E1-87083F2E3AED}">
   <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AE22" sqref="AE22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13338,4 +13447,4289 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA1B0E3-224B-4695-A83A-2DFED5778E0F}">
+  <dimension ref="A1:AX65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AX15" sqref="AX15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="3.77734375" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" customWidth="1"/>
+    <col min="8" max="16" width="3.77734375" customWidth="1"/>
+    <col min="17" max="18" width="5.33203125" customWidth="1"/>
+    <col min="19" max="28" width="3.77734375" customWidth="1"/>
+    <col min="29" max="30" width="5.33203125" customWidth="1"/>
+    <col min="31" max="40" width="3.77734375" customWidth="1"/>
+    <col min="41" max="42" width="5.33203125" customWidth="1"/>
+    <col min="43" max="131" width="3.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="151" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="151" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="151" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="151" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="152" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="10"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="5"/>
+      <c r="AC2" s="152" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="5"/>
+      <c r="AO2" s="152" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="5"/>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX3" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="16">
+        <v>0</v>
+      </c>
+      <c r="T4" s="16">
+        <v>0</v>
+      </c>
+      <c r="U4" s="16">
+        <v>0</v>
+      </c>
+      <c r="V4" s="125">
+        <v>1</v>
+      </c>
+      <c r="W4" s="154">
+        <v>1</v>
+      </c>
+      <c r="X4" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="45">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE4" s="125">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="39">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="167">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="134">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="175">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="134">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="39">
+        <v>1</v>
+      </c>
+      <c r="T5" s="158">
+        <v>1</v>
+      </c>
+      <c r="U5" s="16">
+        <v>0</v>
+      </c>
+      <c r="V5" s="16">
+        <v>0</v>
+      </c>
+      <c r="W5" s="16">
+        <v>0</v>
+      </c>
+      <c r="X5" s="41">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="20">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="41">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="43">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="53">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="20">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="20">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="53">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="155">
+        <v>1</v>
+      </c>
+      <c r="T6" s="134">
+        <v>1</v>
+      </c>
+      <c r="U6" s="16">
+        <v>0</v>
+      </c>
+      <c r="V6" s="155">
+        <v>1</v>
+      </c>
+      <c r="W6" s="155">
+        <v>1</v>
+      </c>
+      <c r="X6" s="41">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="155">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="35">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="35">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="127">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ6" s="40">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="111">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="35">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="35">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="127">
+        <v>1</v>
+      </c>
+      <c r="T7" s="157">
+        <v>1</v>
+      </c>
+      <c r="U7" s="16">
+        <v>0</v>
+      </c>
+      <c r="V7" s="16">
+        <v>0</v>
+      </c>
+      <c r="W7" s="43">
+        <v>1</v>
+      </c>
+      <c r="X7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE7" s="164">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="20">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="168">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="20">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="20">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ7" s="40">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="175">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="92">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="134">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="156">
+        <v>1</v>
+      </c>
+      <c r="T8" s="132">
+        <v>1</v>
+      </c>
+      <c r="U8" s="16">
+        <v>0</v>
+      </c>
+      <c r="V8" s="40">
+        <v>1</v>
+      </c>
+      <c r="W8" s="16">
+        <v>0</v>
+      </c>
+      <c r="X8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="43">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="178">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="125">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="16">
+        <v>0</v>
+      </c>
+      <c r="T9" s="134">
+        <v>1</v>
+      </c>
+      <c r="U9" s="16">
+        <v>0</v>
+      </c>
+      <c r="V9" s="16">
+        <v>0</v>
+      </c>
+      <c r="W9" s="16">
+        <v>0</v>
+      </c>
+      <c r="X9" s="41">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="36">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE9" s="64">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="64">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="128">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="128">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="127">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="112">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="36">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="176">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" s="39">
+        <v>1</v>
+      </c>
+      <c r="T10" s="39">
+        <v>1</v>
+      </c>
+      <c r="U10" s="128">
+        <v>1</v>
+      </c>
+      <c r="V10" s="128">
+        <v>1</v>
+      </c>
+      <c r="W10" s="16">
+        <v>0</v>
+      </c>
+      <c r="X10" s="41">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="36">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="52">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="128">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="40">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="163">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="166">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="36">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="165">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="53">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="177">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="53">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" s="16">
+        <v>0</v>
+      </c>
+      <c r="T11" s="16">
+        <v>0</v>
+      </c>
+      <c r="U11" s="128">
+        <v>1</v>
+      </c>
+      <c r="V11" s="153">
+        <v>1</v>
+      </c>
+      <c r="W11" s="125">
+        <v>1</v>
+      </c>
+      <c r="X11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="52">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="40">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="111">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="134">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="38">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ11" s="52">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="52">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="38">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="128">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="152" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13" s="10"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="5"/>
+      <c r="AC13" s="152" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="5"/>
+      <c r="AO13" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="5"/>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX14" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>13</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S15" s="16">
+        <v>0</v>
+      </c>
+      <c r="T15" s="20">
+        <v>1</v>
+      </c>
+      <c r="U15" s="16">
+        <v>0</v>
+      </c>
+      <c r="V15" s="16">
+        <v>0</v>
+      </c>
+      <c r="W15" s="76">
+        <v>1</v>
+      </c>
+      <c r="X15" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="119">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="39">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="64">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="172">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="43">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="125">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="45">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="45">
+        <v>1</v>
+      </c>
+      <c r="AW15" s="45">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>14</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="16">
+        <v>0</v>
+      </c>
+      <c r="T16" s="16">
+        <v>0</v>
+      </c>
+      <c r="U16" s="16">
+        <v>0</v>
+      </c>
+      <c r="V16" s="16">
+        <v>0</v>
+      </c>
+      <c r="W16" s="36">
+        <v>1</v>
+      </c>
+      <c r="X16" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="46">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="40">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="46">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="111">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="46">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="125">
+        <v>1</v>
+      </c>
+      <c r="AS16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="64">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" s="134">
+        <v>1</v>
+      </c>
+      <c r="T17" s="159">
+        <v>1</v>
+      </c>
+      <c r="U17" s="16">
+        <v>0</v>
+      </c>
+      <c r="V17" s="134">
+        <v>1</v>
+      </c>
+      <c r="W17" s="16">
+        <v>0</v>
+      </c>
+      <c r="X17" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE17" s="36">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="169">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="52">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="46">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="171">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="170">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="125">
+        <v>1</v>
+      </c>
+      <c r="AS17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="134">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="134">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>16</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="127">
+        <v>1</v>
+      </c>
+      <c r="T18" s="160">
+        <v>1</v>
+      </c>
+      <c r="U18" s="41">
+        <v>1</v>
+      </c>
+      <c r="V18" s="16">
+        <v>0</v>
+      </c>
+      <c r="W18" s="64">
+        <v>1</v>
+      </c>
+      <c r="X18" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="64">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="39">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="38">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="182">
+        <v>1</v>
+      </c>
+      <c r="AS18" s="128">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="181">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="134">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>17</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S19" s="39">
+        <v>1</v>
+      </c>
+      <c r="T19" s="125">
+        <v>1</v>
+      </c>
+      <c r="U19" s="16">
+        <v>0</v>
+      </c>
+      <c r="V19" s="40">
+        <v>1</v>
+      </c>
+      <c r="W19" s="162">
+        <v>1</v>
+      </c>
+      <c r="X19" s="43">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="43">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="161">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="39">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="145">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="20">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="38">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="179">
+        <v>1</v>
+      </c>
+      <c r="AS19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="106">
+        <v>1</v>
+      </c>
+      <c r="AV19" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="43">
+        <v>1</v>
+      </c>
+      <c r="AX19" s="106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>18</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" s="16">
+        <v>0</v>
+      </c>
+      <c r="T20" s="125">
+        <v>1</v>
+      </c>
+      <c r="U20" s="38">
+        <v>1</v>
+      </c>
+      <c r="V20" s="163">
+        <v>1</v>
+      </c>
+      <c r="W20" s="111">
+        <v>1</v>
+      </c>
+      <c r="X20" s="150">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="43">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="43">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE20" s="37">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="134">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="22">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ20" s="43">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="154">
+        <v>1</v>
+      </c>
+      <c r="AS20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="40">
+        <v>1</v>
+      </c>
+      <c r="AW20" s="180">
+        <v>1</v>
+      </c>
+      <c r="AX20" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>19</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S21" s="16">
+        <v>0</v>
+      </c>
+      <c r="T21" s="16">
+        <v>0</v>
+      </c>
+      <c r="U21" s="16">
+        <v>0</v>
+      </c>
+      <c r="V21" s="16">
+        <v>0</v>
+      </c>
+      <c r="W21" s="16">
+        <v>0</v>
+      </c>
+      <c r="X21" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE21" s="37">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="134">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="37">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ21" s="43">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="154">
+        <v>1</v>
+      </c>
+      <c r="AS21" s="36">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="35">
+        <v>1</v>
+      </c>
+      <c r="AV21" s="63">
+        <v>1</v>
+      </c>
+      <c r="AW21" s="130">
+        <v>1</v>
+      </c>
+      <c r="AX21" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>20</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S22" s="39">
+        <v>1</v>
+      </c>
+      <c r="T22" s="16">
+        <v>0</v>
+      </c>
+      <c r="U22" s="16">
+        <v>0</v>
+      </c>
+      <c r="V22" s="16">
+        <v>0</v>
+      </c>
+      <c r="W22" s="45">
+        <v>1</v>
+      </c>
+      <c r="X22" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="39">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE22" s="127">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="173">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="39">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="125">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="145">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="20">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="179">
+        <v>1</v>
+      </c>
+      <c r="AS22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="43">
+        <v>1</v>
+      </c>
+      <c r="AX22" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>21</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>22</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>23</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>24</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>25</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>26</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>27</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>28</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>29</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>30</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>31</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>32</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>33</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>34</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>35</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>36</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>37</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>38</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>39</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>40</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>41</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>42</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>43</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1</v>
+      </c>
+      <c r="M45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>44</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>45</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>46</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>1</v>
+      </c>
+      <c r="M48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>47</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2">
+        <v>1</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
+      <c r="M49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>48</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1</v>
+      </c>
+      <c r="I50" s="2">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
+        <v>49</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2">
+        <v>1</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>50</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <v>1</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1">
+        <v>51</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1</v>
+      </c>
+      <c r="K53" s="2">
+        <v>1</v>
+      </c>
+      <c r="L53" s="2">
+        <v>1</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>52</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
+        <v>1</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+      <c r="M54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>53</v>
+      </c>
+      <c r="H55" s="2">
+        <v>1</v>
+      </c>
+      <c r="I55" s="2">
+        <v>1</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0</v>
+      </c>
+      <c r="M55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>54</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1</v>
+      </c>
+      <c r="J56" s="2">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>55</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2">
+        <v>1</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>56</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2">
+        <v>1</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>57</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2">
+        <v>1</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>58</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0</v>
+      </c>
+      <c r="M60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>59</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>1</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2">
+        <v>1</v>
+      </c>
+      <c r="M61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>60</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0</v>
+      </c>
+      <c r="M62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>61</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
+        <v>1</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2">
+        <v>0</v>
+      </c>
+      <c r="M63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>1</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>62</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2">
+        <v>1</v>
+      </c>
+      <c r="M64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
+        <v>63</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1</v>
+      </c>
+      <c r="I65" s="2">
+        <v>1</v>
+      </c>
+      <c r="J65" s="2">
+        <v>1</v>
+      </c>
+      <c r="K65" s="2">
+        <v>1</v>
+      </c>
+      <c r="L65" s="2">
+        <v>1</v>
+      </c>
+      <c r="M65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>